--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H2">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I2">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J2">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N2">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O2">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P2">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q2">
-        <v>233.272978133402</v>
+        <v>602.1174948913919</v>
       </c>
       <c r="R2">
-        <v>933.0919125336079</v>
+        <v>2408.469979565567</v>
       </c>
       <c r="S2">
-        <v>0.01330215855969177</v>
+        <v>0.04784484673070775</v>
       </c>
       <c r="T2">
-        <v>0.006825493953955731</v>
+        <v>0.0274762110473202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H3">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I3">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J3">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.670866</v>
       </c>
       <c r="O3">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P3">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q3">
-        <v>16.71052524341133</v>
+        <v>19.49481123242933</v>
       </c>
       <c r="R3">
-        <v>100.263151460468</v>
+        <v>116.968867394576</v>
       </c>
       <c r="S3">
-        <v>0.0009529010097194825</v>
+        <v>0.001549076822004488</v>
       </c>
       <c r="T3">
-        <v>0.000733417067392408</v>
+        <v>0.001334399562281066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H4">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I4">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J4">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N4">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O4">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P4">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q4">
-        <v>1181.885903135967</v>
+        <v>632.1511992139413</v>
       </c>
       <c r="R4">
-        <v>7091.315418815804</v>
+        <v>3792.907195283648</v>
       </c>
       <c r="S4">
-        <v>0.06739586303042955</v>
+        <v>0.05023135433472108</v>
       </c>
       <c r="T4">
-        <v>0.05187241456770959</v>
+        <v>0.04327009240916956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H5">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I5">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J5">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N5">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O5">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P5">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q5">
-        <v>154.807229718085</v>
+        <v>288.52368110677</v>
       </c>
       <c r="R5">
-        <v>619.22891887234</v>
+        <v>1154.09472442708</v>
       </c>
       <c r="S5">
-        <v>0.008827727636412987</v>
+        <v>0.02292637469904939</v>
       </c>
       <c r="T5">
-        <v>0.004529610840159832</v>
+        <v>0.01316609735059977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H6">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I6">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J6">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N6">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O6">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P6">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q6">
-        <v>266.979550490425</v>
+        <v>192.136632422108</v>
       </c>
       <c r="R6">
-        <v>1601.87730294255</v>
+        <v>1152.819794532648</v>
       </c>
       <c r="S6">
-        <v>0.01522424217856868</v>
+        <v>0.01526736526937861</v>
       </c>
       <c r="T6">
-        <v>0.0117176064858664</v>
+        <v>0.01315155274628783</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H7">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I7">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J7">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N7">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O7">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P7">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q7">
-        <v>1282.016709823996</v>
+        <v>1109.454350198258</v>
       </c>
       <c r="R7">
-        <v>7692.100258943979</v>
+        <v>6656.72610118955</v>
       </c>
       <c r="S7">
-        <v>0.07310572226029843</v>
+        <v>0.0881583308744871</v>
       </c>
       <c r="T7">
-        <v>0.05626710842245395</v>
+        <v>0.07594099689524893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H8">
         <v>196.916633</v>
       </c>
       <c r="I8">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J8">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N8">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O8">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P8">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q8">
-        <v>510.3355786928112</v>
+        <v>1129.129425620384</v>
       </c>
       <c r="R8">
-        <v>3062.013472156867</v>
+        <v>6774.776553722305</v>
       </c>
       <c r="S8">
-        <v>0.02910137659639965</v>
+        <v>0.08972173166581693</v>
       </c>
       <c r="T8">
-        <v>0.02239838772623049</v>
+        <v>0.07728773535391419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H9">
         <v>196.916633</v>
       </c>
       <c r="I9">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J9">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.670866</v>
       </c>
       <c r="O9">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P9">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q9">
-        <v>36.55792299046422</v>
+        <v>36.55792299046423</v>
       </c>
       <c r="R9">
-        <v>329.021306914178</v>
+        <v>329.0213069141781</v>
       </c>
       <c r="S9">
-        <v>0.002084679040510453</v>
+        <v>0.002904928418642406</v>
       </c>
       <c r="T9">
-        <v>0.002406764983063176</v>
+        <v>0.00375352773525943</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H10">
         <v>196.916633</v>
       </c>
       <c r="I10">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J10">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N10">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O10">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P10">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q10">
-        <v>2585.633497510548</v>
+        <v>1185.450558287505</v>
       </c>
       <c r="R10">
-        <v>23270.70147759493</v>
+        <v>10669.05502458755</v>
       </c>
       <c r="S10">
-        <v>0.1474431673842072</v>
+        <v>0.09419706411010059</v>
       </c>
       <c r="T10">
-        <v>0.1702233511041304</v>
+        <v>0.1217142875012775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H11">
         <v>196.916633</v>
       </c>
       <c r="I11">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J11">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N11">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O11">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P11">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q11">
-        <v>338.6746197359817</v>
+        <v>541.0581507596443</v>
       </c>
       <c r="R11">
-        <v>2032.04771841589</v>
+        <v>3246.348904557866</v>
       </c>
       <c r="S11">
-        <v>0.019312581885481</v>
+        <v>0.04299301135597254</v>
       </c>
       <c r="T11">
-        <v>0.01486426924281978</v>
+        <v>0.03703486794174525</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H12">
         <v>196.916633</v>
       </c>
       <c r="I12">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J12">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N12">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O12">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P12">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q12">
-        <v>584.0760661132416</v>
+        <v>360.3069620930744</v>
       </c>
       <c r="R12">
-        <v>5256.684595019175</v>
+        <v>3242.762658837669</v>
       </c>
       <c r="S12">
-        <v>0.0333063542315485</v>
+        <v>0.02863034461481568</v>
       </c>
       <c r="T12">
-        <v>0.03845223438249799</v>
+        <v>0.03699395547652388</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H13">
         <v>196.916633</v>
       </c>
       <c r="I13">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J13">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N13">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O13">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P13">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q13">
-        <v>2804.691502363946</v>
+        <v>2080.520104165645</v>
       </c>
       <c r="R13">
-        <v>25242.22352127551</v>
+        <v>18724.6809374908</v>
       </c>
       <c r="S13">
-        <v>0.1599347312920647</v>
+        <v>0.1653201681540851</v>
       </c>
       <c r="T13">
-        <v>0.1846448797965116</v>
+        <v>0.2136141573685015</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H14">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I14">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J14">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N14">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O14">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P14">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q14">
-        <v>104.4311289364013</v>
+        <v>245.542852987392</v>
       </c>
       <c r="R14">
-        <v>626.586773618408</v>
+        <v>1473.257117924352</v>
       </c>
       <c r="S14">
-        <v>0.005955080810453778</v>
+        <v>0.01951107593896028</v>
       </c>
       <c r="T14">
-        <v>0.004583432968943488</v>
+        <v>0.0168071530234966</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H15">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I15">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J15">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.670866</v>
       </c>
       <c r="O15">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P15">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q15">
-        <v>7.480930840140889</v>
+        <v>7.949962605429334</v>
       </c>
       <c r="R15">
-        <v>67.32837756126801</v>
+        <v>71.54966344886401</v>
       </c>
       <c r="S15">
-        <v>0.0004265926083934762</v>
+        <v>0.0006317118263441815</v>
       </c>
       <c r="T15">
-        <v>0.0004925017865885013</v>
+        <v>0.0008162500134796471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H16">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I16">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J16">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N16">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O16">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P16">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q16">
-        <v>529.1040570842449</v>
+        <v>257.7905646179414</v>
       </c>
       <c r="R16">
-        <v>4761.936513758204</v>
+        <v>2320.115081561472</v>
       </c>
       <c r="S16">
-        <v>0.03017163032867817</v>
+        <v>0.02048429111828544</v>
       </c>
       <c r="T16">
-        <v>0.03483319107924106</v>
+        <v>0.02646824422804398</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H17">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I17">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J17">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N17">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O17">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P17">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q17">
-        <v>69.30375689605667</v>
+        <v>117.65964021052</v>
       </c>
       <c r="R17">
-        <v>415.82254137634</v>
+        <v>705.9578412631201</v>
       </c>
       <c r="S17">
-        <v>0.003951977508884361</v>
+        <v>0.00934935041752601</v>
       </c>
       <c r="T17">
-        <v>0.003041709186371809</v>
+        <v>0.00805368005481839</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H18">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I18">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J18">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N18">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O18">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P18">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q18">
-        <v>119.5208124136167</v>
+        <v>78.35310763860801</v>
       </c>
       <c r="R18">
-        <v>1075.68731172255</v>
+        <v>705.1779687474721</v>
       </c>
       <c r="S18">
-        <v>0.006815554937528585</v>
+        <v>0.006226014785569455</v>
       </c>
       <c r="T18">
-        <v>0.007868568084116486</v>
+        <v>0.008044783144326767</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H19">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I19">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J19">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N19">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O19">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P19">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q19">
-        <v>573.9303943111976</v>
+        <v>452.4342652692587</v>
       </c>
       <c r="R19">
-        <v>5165.373548800779</v>
+        <v>4071.908387423328</v>
       </c>
       <c r="S19">
-        <v>0.03272780743163495</v>
+        <v>0.03595087048821361</v>
       </c>
       <c r="T19">
-        <v>0.03778430126088218</v>
+        <v>0.0464529826684314</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H20">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I20">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J20">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N20">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O20">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P20">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q20">
-        <v>144.619692026055</v>
+        <v>483.9744858634079</v>
       </c>
       <c r="R20">
-        <v>578.47876810422</v>
+        <v>1935.897943453632</v>
       </c>
       <c r="S20">
-        <v>0.008246793475943178</v>
+        <v>0.038457087352834</v>
       </c>
       <c r="T20">
-        <v>0.004231526692227011</v>
+        <v>0.02208503361540741</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H21">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I21">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J21">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.670866</v>
       </c>
       <c r="O21">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P21">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q21">
-        <v>10.359841219645</v>
+        <v>15.669684610179</v>
       </c>
       <c r="R21">
-        <v>62.15904731787001</v>
+        <v>94.018107661074</v>
       </c>
       <c r="S21">
-        <v>0.0005907595970165901</v>
+        <v>0.001245128508726981</v>
       </c>
       <c r="T21">
-        <v>0.0004546885424178283</v>
+        <v>0.00107257362154512</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H22">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I22">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J22">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N22">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O22">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P22">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q22">
-        <v>732.720852149935</v>
+        <v>508.1152004770919</v>
       </c>
       <c r="R22">
-        <v>4396.32511289961</v>
+        <v>3048.691202862552</v>
       </c>
       <c r="S22">
-        <v>0.04178267467274763</v>
+        <v>0.04037533221444494</v>
       </c>
       <c r="T22">
-        <v>0.03215877243672846</v>
+        <v>0.034779957242012</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H23">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I23">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J23">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N23">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O23">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P23">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q23">
-        <v>95.97414181608751</v>
+        <v>231.9117139226363</v>
       </c>
       <c r="R23">
-        <v>383.89656726435</v>
+        <v>927.6468556905451</v>
       </c>
       <c r="S23">
-        <v>0.005472829567674376</v>
+        <v>0.01842793225877899</v>
       </c>
       <c r="T23">
-        <v>0.002808173196670809</v>
+        <v>0.01058274381685832</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H24">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I24">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J24">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N24">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O24">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P24">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q24">
-        <v>165.5163863304375</v>
+        <v>154.4370138402795</v>
       </c>
       <c r="R24">
-        <v>993.098317982625</v>
+        <v>926.6220830416769</v>
       </c>
       <c r="S24">
-        <v>0.009438406594764599</v>
+        <v>0.01227171659921486</v>
       </c>
       <c r="T24">
-        <v>0.007264436090404836</v>
+        <v>0.01057105304644611</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H25">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I25">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J25">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N25">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O25">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P25">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q25">
-        <v>794.7978511294825</v>
+        <v>891.7654831188328</v>
       </c>
       <c r="R25">
-        <v>4768.787106776896</v>
+        <v>5350.592898712996</v>
       </c>
       <c r="S25">
-        <v>0.04532255353031311</v>
+        <v>0.07086055997634172</v>
       </c>
       <c r="T25">
-        <v>0.03488330262838431</v>
+        <v>0.06104042025047329</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H26">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I26">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J26">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N26">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O26">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P26">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q26">
-        <v>184.2135298429947</v>
+        <v>38.76917722070399</v>
       </c>
       <c r="R26">
-        <v>1105.281179057968</v>
+        <v>232.615063324224</v>
       </c>
       <c r="S26">
-        <v>0.0105045925268322</v>
+        <v>0.003080636848684842</v>
       </c>
       <c r="T26">
-        <v>0.008085044896163431</v>
+        <v>0.002653709876772053</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H27">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I27">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J27">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.670866</v>
       </c>
       <c r="O27">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P27">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q27">
-        <v>13.19614841483645</v>
+        <v>1.255233069902</v>
       </c>
       <c r="R27">
-        <v>118.765335733528</v>
+        <v>11.297097629118</v>
       </c>
       <c r="S27">
-        <v>0.0007524971816109579</v>
+        <v>9.974205092912929E-05</v>
       </c>
       <c r="T27">
-        <v>0.0008687590901818267</v>
+        <v>0.0001288790980636662</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H28">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I28">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J28">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N28">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O28">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P28">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q28">
-        <v>933.3244503092204</v>
+        <v>40.702989168296</v>
       </c>
       <c r="R28">
-        <v>8399.920052782983</v>
+        <v>366.326902514664</v>
       </c>
       <c r="S28">
-        <v>0.05322189447313742</v>
+        <v>0.003234299442818965</v>
       </c>
       <c r="T28">
-        <v>0.06144475454546041</v>
+        <v>0.004179115941324518</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H29">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I29">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J29">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N29">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O29">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P29">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q29">
-        <v>122.2498484812733</v>
+        <v>18.5774800103025</v>
       </c>
       <c r="R29">
-        <v>733.49909088764</v>
+        <v>111.464880061815</v>
       </c>
       <c r="S29">
-        <v>0.006971175493229325</v>
+        <v>0.001476184783330429</v>
       </c>
       <c r="T29">
-        <v>0.005365488161280455</v>
+        <v>0.00127160919377334</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H30">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I30">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J30">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N30">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O30">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P30">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q30">
-        <v>210.8313006730333</v>
+        <v>12.371304963171</v>
       </c>
       <c r="R30">
-        <v>1897.4817060573</v>
+        <v>111.341744668539</v>
       </c>
       <c r="S30">
-        <v>0.01202244431969708</v>
+        <v>0.0009830360267617305</v>
       </c>
       <c r="T30">
-        <v>0.01387992944582427</v>
+        <v>0.001270204445496736</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H31">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I31">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J31">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N31">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O31">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P31">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q31">
-        <v>1012.39682934611</v>
+        <v>71.43561295935399</v>
       </c>
       <c r="R31">
-        <v>9111.571464114988</v>
+        <v>642.9205166341858</v>
       </c>
       <c r="S31">
-        <v>0.05773091790164287</v>
+        <v>0.005676343873334802</v>
       </c>
       <c r="T31">
-        <v>0.06665042864907741</v>
+        <v>0.007334540165154722</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H32">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I32">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J32">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N32">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O32">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P32">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q32">
-        <v>127.7229506676573</v>
+        <v>164.970321312736</v>
       </c>
       <c r="R32">
-        <v>766.3377040059438</v>
+        <v>989.8219278764161</v>
       </c>
       <c r="S32">
-        <v>0.007283273678279462</v>
+        <v>0.01310870354256552</v>
       </c>
       <c r="T32">
-        <v>0.005605700033535004</v>
+        <v>0.01129204699263198</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H33">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I33">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J33">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.670866</v>
       </c>
       <c r="O33">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P33">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q33">
-        <v>9.149442032991555</v>
+        <v>5.341258641762445</v>
       </c>
       <c r="R33">
-        <v>82.344978296924</v>
+        <v>48.07132777586201</v>
       </c>
       <c r="S33">
-        <v>0.0005217377924757381</v>
+        <v>0.0004244216506452583</v>
       </c>
       <c r="T33">
-        <v>0.0006023470399375335</v>
+        <v>0.000548405401977539</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H34">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I34">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J34">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N34">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O34">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P34">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q34">
-        <v>647.1129065566635</v>
+        <v>173.1990638660418</v>
       </c>
       <c r="R34">
-        <v>5824.016159009971</v>
+        <v>1558.791574794376</v>
       </c>
       <c r="S34">
-        <v>0.0369009670897976</v>
+        <v>0.01376256749700913</v>
       </c>
       <c r="T34">
-        <v>0.04260222015334558</v>
+        <v>0.01778294379885124</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H35">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I35">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J35">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N35">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O35">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P35">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q35">
-        <v>84.76093683243666</v>
+        <v>79.05075800380585</v>
       </c>
       <c r="R35">
-        <v>508.56562099462</v>
+        <v>474.3045480228351</v>
       </c>
       <c r="S35">
-        <v>0.004833407754447687</v>
+        <v>0.006281450767878081</v>
       </c>
       <c r="T35">
-        <v>0.003720117519680565</v>
+        <v>0.00541094220511311</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H36">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I36">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J36">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N36">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O36">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P36">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q36">
-        <v>146.1781652955166</v>
+        <v>52.64228702130567</v>
       </c>
       <c r="R36">
-        <v>1315.60348765965</v>
+        <v>473.7805831917511</v>
       </c>
       <c r="S36">
-        <v>0.008335663857362001</v>
+        <v>0.004183007760873323</v>
       </c>
       <c r="T36">
-        <v>0.009623536042062295</v>
+        <v>0.005404964730449781</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H37">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I37">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J37">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N37">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O37">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P37">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q37">
-        <v>701.9370965904282</v>
+        <v>303.9723013978082</v>
       </c>
       <c r="R37">
-        <v>6317.433869313853</v>
+        <v>2735.750712580274</v>
       </c>
       <c r="S37">
-        <v>0.04002726176212247</v>
+        <v>0.02415393722014662</v>
       </c>
       <c r="T37">
-        <v>0.04621153189768301</v>
+        <v>0.03120988203692322</v>
       </c>
     </row>
   </sheetData>
